--- a/FixtureBookTest/FixtureTest/Cast/Temp/DictionaryFactoryTest.xlsx
+++ b/FixtureBookTest/FixtureTest/Cast/Temp/DictionaryFactoryTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="105">
   <si>
     <t>A. テストケース</t>
     <phoneticPr fontId="4"/>
@@ -428,6 +428,27 @@
       <t>ヒョウゲン</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>親子構造になったデータを取得できる2</t>
+    <rPh sb="0" eb="2">
+      <t>オヤコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>customerInfo:XPFriend.FixtureTest.Cast.Temp.Datas.Customer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>detail:List&lt;XPFriend.FixtureTest.Cast.Temp.Datas.OrderDetail&gt;</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -915,9 +936,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AG39"/>
+  <dimension ref="B2:AG58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1279,50 +1302,130 @@
     </row>
     <row r="32" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D38" s="6" t="s">
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D57" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E57" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F57" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G57" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D39" s="7" t="s">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D58" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E58" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F58" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G58" s="7" t="s">
         <v>98</v>
       </c>
     </row>
